--- a/Data/EC/NIT-9006682055.xlsx
+++ b/Data/EC/NIT-9006682055.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFF4E0F-7F3A-4E45-B155-60C2C5CDA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CFCC79-F48D-4745-8A8D-BF93EC75DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DC914C5-025B-4989-8D97-F90B6E8A66B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E271365E-EE42-4E74-A19E-8922941F53D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,109 +65,103 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1100395787</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA ESCOBAR DIAZ</t>
+    <t>55222783</t>
+  </si>
+  <si>
+    <t>NINA ROMERO PALMA</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>45550809</t>
+  </si>
+  <si>
+    <t>TAYRINE BANDERA GARCIA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
   </si>
   <si>
     <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>45550809</t>
-  </si>
-  <si>
-    <t>TAYRINE BANDERA GARCIA</t>
-  </si>
-  <si>
-    <t>55222783</t>
-  </si>
-  <si>
-    <t>NINA ROMERO PALMA</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09AEF49-4625-39F6-39F1-795DD3A8830C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2FE23-ADA8-57E5-F1BE-877EC00BA0A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D64E4D-8918-4FB6-8F66-E1F68E09B8A9}">
-  <dimension ref="B2:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F19E82-A354-4CE4-9703-38D4B2EFBE97}">
+  <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -944,7 +938,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -957,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2167035</v>
+        <v>1941785</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,14 +1044,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
         <v>29</v>
@@ -1087,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26500</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1156,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1179,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1202,10 +1196,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1225,10 +1219,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,10 +1242,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1262,19 +1256,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>25151</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1279,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1308,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1377,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1400,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31439</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
         <v>1500000</v>
@@ -1446,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>60000</v>
@@ -1469,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>60000</v>
@@ -1492,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>60000</v>
@@ -1515,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>60000</v>
@@ -1538,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>60000</v>
@@ -1561,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>60000</v>
@@ -1584,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>60000</v>
@@ -1607,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1630,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>60000</v>
@@ -1653,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G40" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1676,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>60000</v>
@@ -1699,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G42" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1722,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
         <v>60000</v>
@@ -1745,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1768,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>60000</v>
@@ -1791,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1814,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
         <v>60000</v>
@@ -1837,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>60000</v>
+        <v>31439</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1860,13 +1854,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
         <v>60000</v>
@@ -1883,236 +1877,75 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>25151</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>785979</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="B51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="24">
+        <v>48000</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="B56" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G58" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="H63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
+      <c r="B57" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="H57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
